--- a/Recs/Analysis.xlsx
+++ b/Recs/Analysis.xlsx
@@ -9,15 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_2016126_171425" localSheetId="1">Sheet2!$B$2:$E$712</definedName>
+    <definedName name="_2016126_174627" localSheetId="3">Sheet6!$B$2:$E$250</definedName>
+    <definedName name="_2016126_174855" localSheetId="4">Sheet7!$B$2:$E$80</definedName>
     <definedName name="_2016126_1784" localSheetId="0">Sheet1!$B$2:$E$896</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -46,7 +50,37 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="2016126_1784" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="2" name="2016126_174627" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="F:\Code\Kinect\BodyBasics-D2D-MouseControl\2016126_174627.txt" space="1" consecutive="1">
+      <textFields count="9">
+        <textField type="skip"/>
+        <textField/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+        <textField/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="2016126_174855" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="F:\Code\Kinect\BodyBasics-D2D-MouseControl\2016126_174855.txt" space="1" consecutive="1">
+      <textFields count="9">
+        <textField type="skip"/>
+        <textField/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+        <textField/>
+        <textField/>
+        <textField type="skip"/>
+        <textField type="skip"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="2016126_1784" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="936" sourceFile="F:\Code\Kinect\BodyBasics-D2D-MouseControl\2016126_1784.txt" space="1" consecutive="1">
       <textFields count="9">
         <textField type="skip"/>
@@ -65,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>x-ls</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +114,30 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y-ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y-ave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +220,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5670,11 +5727,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="257834328"/>
-        <c:axId val="257836288"/>
+        <c:axId val="261262192"/>
+        <c:axId val="261263368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="257834328"/>
+        <c:axId val="261262192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5716,7 +5773,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257836288"/>
+        <c:crossAx val="261263368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5724,7 +5781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257836288"/>
+        <c:axId val="261263368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5775,7 +5832,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257834328"/>
+        <c:crossAx val="261262192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5789,7 +5846,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5871,7 +5927,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11379,11 +11434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="624834408"/>
-        <c:axId val="624831664"/>
+        <c:axId val="524282680"/>
+        <c:axId val="524276016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="624834408"/>
+        <c:axId val="524282680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11425,7 +11480,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624831664"/>
+        <c:crossAx val="524276016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11433,7 +11488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="624831664"/>
+        <c:axId val="524276016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11484,7 +11539,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624834408"/>
+        <c:crossAx val="524282680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11498,7 +11553,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15984,11 +16038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="258955856"/>
-        <c:axId val="258956248"/>
+        <c:axId val="524276800"/>
+        <c:axId val="524279152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258955856"/>
+        <c:axId val="524276800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16030,7 +16084,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258956248"/>
+        <c:crossAx val="524279152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16038,7 +16092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258956248"/>
+        <c:axId val="524279152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16089,7 +16143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258955856"/>
+        <c:crossAx val="524276800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20589,11 +20643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547989896"/>
-        <c:axId val="547990288"/>
+        <c:axId val="524283072"/>
+        <c:axId val="524279936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="547989896"/>
+        <c:axId val="524283072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20635,7 +20689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547990288"/>
+        <c:crossAx val="524279936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20643,7 +20697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547990288"/>
+        <c:axId val="524279936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20694,7 +20748,820 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547989896"/>
+        <c:crossAx val="524283072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$2:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>-6.9860820000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.2230349999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2357270000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2090170000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.511919E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7136680000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10984014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15134022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18664012999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21930738999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23474529</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24473321000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26565221</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26610601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26249665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26021060000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25991574000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3598538</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36192220000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35197773999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24083367999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22573596000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20890526000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17076162</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12054727</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4648289999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5221699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.3795639999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.7029910000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.11390807999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.13127457000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.13790316999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.13908456</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.13405106999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.12368717999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.10703279</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.0411319999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.4117740000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.9956499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0595279999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.8273379999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.13639915</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.17856900000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.21047083999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.24257918000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24837028999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.25642097000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.25231515999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.22250949</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.23794007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23807764000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.23385149</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.25291397999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.23381647</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25178244999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.25179747000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.23844138000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.22004946</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.21501236000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.18001117999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.14063550999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.4701389999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.5520749999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.9927999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-4.7653349999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-8.1327410000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.10934049</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.12789918</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.14391717000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.15189306</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.17068784000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.15564045000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.15329072999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.15063365000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.15513703000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.14919445000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.14124832000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.411032E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x-ave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$D$2:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>-5.4673079999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.013806E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.4849500000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.8807400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.2011749999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.4462559999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.1191560000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.022011E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.0806170000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2973510000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2079390000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.272759E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10626823000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15106262000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19189601000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22697705000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25787898999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28129891000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29876003000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31158337000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32007860999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32460963999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32646199999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32710444999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32227721999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31378388000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30203228999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28216994000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25230219999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.21249042000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.16448055</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11016829</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3492079999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.6628999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.6615499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-8.3258520000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.11066284999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.12988804000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.14232895000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.14537473000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.1385275</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.12158976000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.5813510000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-6.1942650000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.0715669999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.6654959999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.7343430000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.12761135000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17160679000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.21030589999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.24019631999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.26224797999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.27870074</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.28841749</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.29397299999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.29670407999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29778218000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.29809341</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.29797216999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.29679060000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.29571765999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.29132133999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.28629154000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.27315217000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.25178184999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.22163472000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.18317509000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.13818586999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.845016E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.8115499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.0468430000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-5.4542309999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-9.3095369999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.12432954</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.14778775</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.16439612000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.17552077999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.18248153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767410584"/>
+        <c:axId val="767411368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767410584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767411368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="767411368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767410584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20896,6 +21763,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22947,6 +23854,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -23084,12 +24494,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2016126_1784" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2016126_1784" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2016126_171425" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2016126_174627" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2016126_174855" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38593,7 +40046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E711"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" activeCellId="1" sqref="C1:C1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -50705,4 +52158,5613 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="5" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6.2453799999999997E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.10025340000000001</v>
+      </c>
+      <c r="D2">
+        <v>8.1582710000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.12485130999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6.1649849999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.9029790000000006E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.9944719999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.12393751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6.1114839999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.6801940000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>7.8519660000000005E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.12201276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6.08777E-2</v>
+      </c>
+      <c r="C5">
+        <v>9.3422430000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.7391180000000004E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.11889122000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6.0496210000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>8.9543949999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.6426839999999996E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.11567642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.01212E-2</v>
+      </c>
+      <c r="C7">
+        <v>8.6428019999999994E-2</v>
+      </c>
+      <c r="D7">
+        <v>7.5723949999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.1126268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5.9585829999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>8.4246470000000004E-2</v>
+      </c>
+      <c r="D8">
+        <v>7.5010270000000004E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.1099961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5.8787029999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>8.3417099999999994E-2</v>
+      </c>
+      <c r="D9">
+        <v>7.4161840000000007E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.10785459999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5.8133820000000003E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.3069599999999993E-2</v>
+      </c>
+      <c r="D10">
+        <v>7.3465680000000005E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.10620232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5.751059E-2</v>
+      </c>
+      <c r="C11">
+        <v>8.3003129999999994E-2</v>
+      </c>
+      <c r="D11">
+        <v>7.2886129999999993E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.10502164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5.7198440000000003E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.3003129999999994E-2</v>
+      </c>
+      <c r="D12">
+        <v>7.2421650000000004E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.10430612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5.7198440000000003E-2</v>
+      </c>
+      <c r="C13">
+        <v>8.333364E-2</v>
+      </c>
+      <c r="D13">
+        <v>7.2065560000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.10428627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5.8341400000000002E-2</v>
+      </c>
+      <c r="C14">
+        <v>8.4061590000000005E-2</v>
+      </c>
+      <c r="D14">
+        <v>7.3007470000000005E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.10486897000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6.1562110000000003E-2</v>
+      </c>
+      <c r="C15">
+        <v>8.4815109999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>7.6051649999999998E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.10545694999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6.8316509999999997E-2</v>
+      </c>
+      <c r="C16">
+        <v>8.5594199999999995E-2</v>
+      </c>
+      <c r="D16">
+        <v>8.2399230000000004E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.10599806000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8.0220840000000002E-2</v>
+      </c>
+      <c r="C17">
+        <v>8.6021130000000001E-2</v>
+      </c>
+      <c r="D17">
+        <v>9.3218609999999993E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.10646237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>9.8208299999999998E-2</v>
+      </c>
+      <c r="C18">
+        <v>8.6021130000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.11007509</v>
+      </c>
+      <c r="E18">
+        <v>0.10684285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.12235079</v>
+      </c>
+      <c r="C19">
+        <v>8.5553489999999996E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.13305135000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.10664679000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.15166368999999999</v>
+      </c>
+      <c r="C20">
+        <v>8.2475149999999997E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.1616358</v>
+      </c>
+      <c r="E20">
+        <v>0.10368869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.18508174999999999</v>
+      </c>
+      <c r="C21">
+        <v>7.562104E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.19535735000000001</v>
+      </c>
+      <c r="E21">
+        <v>9.7142320000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.22050235000000001</v>
+      </c>
+      <c r="C22">
+        <v>6.2255600000000001E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.23332175999999999</v>
+      </c>
+      <c r="E22">
+        <v>8.4692740000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.25692278000000002</v>
+      </c>
+      <c r="C23">
+        <v>4.1759890000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.27443326000000001</v>
+      </c>
+      <c r="E23">
+        <v>6.6133529999999996E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.29326615</v>
+      </c>
+      <c r="C24">
+        <v>1.5364589999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.31709555</v>
+      </c>
+      <c r="E24">
+        <v>4.134239E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.32859337</v>
+      </c>
+      <c r="C25">
+        <v>-1.8277120000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.36017799</v>
+      </c>
+      <c r="E25">
+        <v>8.7736499999999992E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.36123765000000002</v>
+      </c>
+      <c r="C26">
+        <v>-5.6913610000000003E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.40160361</v>
+      </c>
+      <c r="E26">
+        <v>-3.0845170000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.38999781</v>
+      </c>
+      <c r="C27">
+        <v>-9.8940929999999996E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.43998218</v>
+      </c>
+      <c r="E27">
+        <v>-7.5475689999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.41109306000000001</v>
+      </c>
+      <c r="C28">
+        <v>-0.14290233999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.47089409999999998</v>
+      </c>
+      <c r="E28">
+        <v>-0.12341513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.42406698999999998</v>
+      </c>
+      <c r="C29">
+        <v>-0.18399035999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.49450611999999999</v>
+      </c>
+      <c r="E29">
+        <v>-0.17129767000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.43038421999999998</v>
+      </c>
+      <c r="C30">
+        <v>-0.21944879</v>
+      </c>
+      <c r="D30">
+        <v>0.51181942000000002</v>
+      </c>
+      <c r="E30">
+        <v>-0.21630982000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.43122779999999999</v>
+      </c>
+      <c r="C31">
+        <v>-0.24432572999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.52391726000000005</v>
+      </c>
+      <c r="E31">
+        <v>-0.25236014000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.43141585999999998</v>
+      </c>
+      <c r="C32">
+        <v>-0.25879215999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.53177726000000003</v>
+      </c>
+      <c r="E32">
+        <v>-0.28018269000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.43155779999999999</v>
+      </c>
+      <c r="C33">
+        <v>-0.26495916000000003</v>
+      </c>
+      <c r="D33">
+        <v>0.53631085000000001</v>
+      </c>
+      <c r="E33">
+        <v>-0.30062046999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.43156999000000001</v>
+      </c>
+      <c r="C34">
+        <v>-0.26495916000000003</v>
+      </c>
+      <c r="D34">
+        <v>0.53842836999999999</v>
+      </c>
+      <c r="E34">
+        <v>-0.31462854000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.43143880000000001</v>
+      </c>
+      <c r="C35">
+        <v>-0.26215848000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.53911114000000004</v>
+      </c>
+      <c r="E35">
+        <v>-0.32048935000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.43120563000000001</v>
+      </c>
+      <c r="C36">
+        <v>-0.25382689000000003</v>
+      </c>
+      <c r="D36">
+        <v>0.53908771</v>
+      </c>
+      <c r="E36">
+        <v>-0.31704875999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.43037101999999999</v>
+      </c>
+      <c r="C37">
+        <v>-0.23853250000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.53830462999999995</v>
+      </c>
+      <c r="E37">
+        <v>-0.30484432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.42879134000000002</v>
+      </c>
+      <c r="C38">
+        <v>-0.21400010999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.53673238000000001</v>
+      </c>
+      <c r="E38">
+        <v>-0.28366133999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.42260747999999998</v>
+      </c>
+      <c r="C39">
+        <v>-0.18332581000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.53050505999999997</v>
+      </c>
+      <c r="E39">
+        <v>-0.25563472999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.41119899999999998</v>
+      </c>
+      <c r="C40">
+        <v>-0.14890569000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.51967638999999999</v>
+      </c>
+      <c r="E40">
+        <v>-0.22198351999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.39330870000000001</v>
+      </c>
+      <c r="C41">
+        <v>-0.11081766</v>
+      </c>
+      <c r="D41">
+        <v>0.50297064000000002</v>
+      </c>
+      <c r="E41">
+        <v>-0.18247251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.36689684</v>
+      </c>
+      <c r="C42">
+        <v>-7.3021420000000004E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.47906989</v>
+      </c>
+      <c r="E42">
+        <v>-0.14013515000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.33510336000000002</v>
+      </c>
+      <c r="C43">
+        <v>-3.5625219999999999E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.44808503999999999</v>
+      </c>
+      <c r="E43">
+        <v>-9.6300040000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.29800251</v>
+      </c>
+      <c r="C44">
+        <v>-1.7464999999999999E-4</v>
+      </c>
+      <c r="D44">
+        <v>0.41085735000000001</v>
+      </c>
+      <c r="E44">
+        <v>-5.3028949999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.2571215</v>
+      </c>
+      <c r="C45">
+        <v>2.9162009999999999E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.36820087000000001</v>
+      </c>
+      <c r="E45">
+        <v>-1.3668090000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.21451350999999999</v>
+      </c>
+      <c r="C46">
+        <v>5.4755770000000002E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.32118729000000001</v>
+      </c>
+      <c r="E46">
+        <v>2.252593E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.17223215</v>
+      </c>
+      <c r="C47">
+        <v>7.4557209999999999E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.27213727999999998</v>
+      </c>
+      <c r="E47">
+        <v>5.3342760000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.13144423</v>
+      </c>
+      <c r="C48">
+        <v>8.7545059999999994E-2</v>
+      </c>
+      <c r="D48">
+        <v>0.22293590999999999</v>
+      </c>
+      <c r="E48">
+        <v>7.7355149999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>9.4237370000000001E-2</v>
+      </c>
+      <c r="C49">
+        <v>9.6102629999999994E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.17578167</v>
+      </c>
+      <c r="E49">
+        <v>9.4989340000000005E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6.217702E-2</v>
+      </c>
+      <c r="C50">
+        <v>9.9461460000000002E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.13225073000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.10733054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3.5791490000000002E-2</v>
+      </c>
+      <c r="C51">
+        <v>0.10013859</v>
+      </c>
+      <c r="D51">
+        <v>9.3905719999999998E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.11561844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1.8225890000000002E-2</v>
+      </c>
+      <c r="C52">
+        <v>0.10044995</v>
+      </c>
+      <c r="D52">
+        <v>6.429472E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.12089437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7.8945899999999999E-3</v>
+      </c>
+      <c r="C53">
+        <v>0.10077220000000001</v>
+      </c>
+      <c r="D53">
+        <v>4.2279909999999997E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.12390283000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>3.5593700000000001E-3</v>
+      </c>
+      <c r="C54">
+        <v>0.10105909</v>
+      </c>
+      <c r="D54">
+        <v>2.669179E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.12545951</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3.5593700000000001E-3</v>
+      </c>
+      <c r="C55">
+        <v>0.10107700999999999</v>
+      </c>
+      <c r="D55">
+        <v>1.6321740000000001E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.12588629000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1.8156229999999999E-2</v>
+      </c>
+      <c r="C56">
+        <v>0.10080651</v>
+      </c>
+      <c r="D56">
+        <v>2.5325319999999998E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.12584168000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>4.0663299999999999E-2</v>
+      </c>
+      <c r="C57">
+        <v>0.10052657</v>
+      </c>
+      <c r="D57">
+        <v>4.3306780000000003E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.12573548000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>6.4348550000000004E-2</v>
+      </c>
+      <c r="C58">
+        <v>0.10023718</v>
+      </c>
+      <c r="D58">
+        <v>6.103633E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.12562451999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>9.2950279999999996E-2</v>
+      </c>
+      <c r="C59">
+        <v>9.9718319999999999E-2</v>
+      </c>
+      <c r="D59">
+        <v>8.1591120000000003E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.12507571000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.1103474</v>
+      </c>
+      <c r="C60">
+        <v>9.8250409999999996E-2</v>
+      </c>
+      <c r="D60">
+        <v>0.10427657</v>
+      </c>
+      <c r="E60">
+        <v>0.12347706999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.12035875</v>
+      </c>
+      <c r="C61">
+        <v>9.4280429999999998E-2</v>
+      </c>
+      <c r="D61">
+        <v>0.12382701</v>
+      </c>
+      <c r="E61">
+        <v>0.11947852</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.13885138999999999</v>
+      </c>
+      <c r="C62">
+        <v>8.6271050000000002E-2</v>
+      </c>
+      <c r="D62">
+        <v>0.14874092</v>
+      </c>
+      <c r="E62">
+        <v>0.11185894</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.16300625999999999</v>
+      </c>
+      <c r="C63">
+        <v>7.5183070000000005E-2</v>
+      </c>
+      <c r="D63">
+        <v>0.17921840999999999</v>
+      </c>
+      <c r="E63">
+        <v>0.10173894</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.19283</v>
+      </c>
+      <c r="C64">
+        <v>5.8872180000000003E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.21441399</v>
+      </c>
+      <c r="E64">
+        <v>8.6589840000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.23238951999999999</v>
+      </c>
+      <c r="C65">
+        <v>3.7314340000000001E-2</v>
+      </c>
+      <c r="D65">
+        <v>0.25234598000000003</v>
+      </c>
+      <c r="E65">
+        <v>6.5565380000000006E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.27211743999999999</v>
+      </c>
+      <c r="C66">
+        <v>1.105418E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.29300636000000002</v>
+      </c>
+      <c r="E66">
+        <v>3.854842E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.30911282000000001</v>
+      </c>
+      <c r="C67">
+        <v>-2.156777E-2</v>
+      </c>
+      <c r="D67">
+        <v>0.33456786999999999</v>
+      </c>
+      <c r="E67">
+        <v>5.7053499999999997E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.34110874000000002</v>
+      </c>
+      <c r="C68">
+        <v>-5.933861E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.37430024000000001</v>
+      </c>
+      <c r="E68">
+        <v>-3.3713519999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0.36716777</v>
+      </c>
+      <c r="C69">
+        <v>-9.9858139999999998E-2</v>
+      </c>
+      <c r="D69">
+        <v>0.41034561000000003</v>
+      </c>
+      <c r="E69">
+        <v>-7.7515390000000003E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0.38522959000000001</v>
+      </c>
+      <c r="C70">
+        <v>-0.14144638000000001</v>
+      </c>
+      <c r="D70">
+        <v>0.44013688000000001</v>
+      </c>
+      <c r="E70">
+        <v>-0.12390677999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0.39693679999999998</v>
+      </c>
+      <c r="C71">
+        <v>-0.18112076999999999</v>
+      </c>
+      <c r="D71">
+        <v>0.46370878999999998</v>
+      </c>
+      <c r="E71">
+        <v>-0.16984455000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0.40404928000000001</v>
+      </c>
+      <c r="C72">
+        <v>-0.21442859</v>
+      </c>
+      <c r="D72">
+        <v>0.48178616000000002</v>
+      </c>
+      <c r="E72">
+        <v>-0.2124154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0.40742221000000001</v>
+      </c>
+      <c r="C73">
+        <v>-0.23740391</v>
+      </c>
+      <c r="D73">
+        <v>0.49447837</v>
+      </c>
+      <c r="E73">
+        <v>-0.24639564999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.40975507999999999</v>
+      </c>
+      <c r="C74">
+        <v>-0.25049439000000001</v>
+      </c>
+      <c r="D74">
+        <v>0.50285774000000005</v>
+      </c>
+      <c r="E74">
+        <v>-0.2724916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0.41090608000000001</v>
+      </c>
+      <c r="C75">
+        <v>-0.25579673000000003</v>
+      </c>
+      <c r="D75">
+        <v>0.50800663000000001</v>
+      </c>
+      <c r="E75">
+        <v>-0.29157980999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.41100063999999997</v>
+      </c>
+      <c r="C76">
+        <v>-0.25579673000000003</v>
+      </c>
+      <c r="D76">
+        <v>0.51093697999999999</v>
+      </c>
+      <c r="E76">
+        <v>-0.30464598999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.41100063999999997</v>
+      </c>
+      <c r="C77">
+        <v>-0.25305109999999997</v>
+      </c>
+      <c r="D77">
+        <v>0.51247388000000005</v>
+      </c>
+      <c r="E77">
+        <v>-0.30987427000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.41099470999999999</v>
+      </c>
+      <c r="C78">
+        <v>-0.24470629999999999</v>
+      </c>
+      <c r="D78">
+        <v>0.51321958999999995</v>
+      </c>
+      <c r="E78">
+        <v>-0.30596258999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.41051041999999999</v>
+      </c>
+      <c r="C79">
+        <v>-0.22965921</v>
+      </c>
+      <c r="D79">
+        <v>0.51309322999999996</v>
+      </c>
+      <c r="E79">
+        <v>-0.29377267000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.40862443999999998</v>
+      </c>
+      <c r="C80">
+        <v>-0.20671734</v>
+      </c>
+      <c r="D80">
+        <v>0.51131402999999997</v>
+      </c>
+      <c r="E80">
+        <v>-0.27412975000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.40467377999999998</v>
+      </c>
+      <c r="C81">
+        <v>-0.17791098</v>
+      </c>
+      <c r="D81">
+        <v>0.50752657999999995</v>
+      </c>
+      <c r="E81">
+        <v>-0.24784879000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0.39735493</v>
+      </c>
+      <c r="C82">
+        <v>-0.14618959000000001</v>
+      </c>
+      <c r="D82">
+        <v>0.50077139999999998</v>
+      </c>
+      <c r="E82">
+        <v>-0.21644764</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0.38553026000000001</v>
+      </c>
+      <c r="C83">
+        <v>-0.11276381000000001</v>
+      </c>
+      <c r="D83">
+        <v>0.48979196000000003</v>
+      </c>
+      <c r="E83">
+        <v>-0.18117469999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0.36870482999999998</v>
+      </c>
+      <c r="C84">
+        <v>-7.8636220000000007E-2</v>
+      </c>
+      <c r="D84">
+        <v>0.47369983999999998</v>
+      </c>
+      <c r="E84">
+        <v>-0.14291437000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0.34568280000000001</v>
+      </c>
+      <c r="C85">
+        <v>-4.6116749999999998E-2</v>
+      </c>
+      <c r="D85">
+        <v>0.45139952999999999</v>
+      </c>
+      <c r="E85">
+        <v>-0.10404268999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0.31773683000000003</v>
+      </c>
+      <c r="C86">
+        <v>-1.552251E-2</v>
+      </c>
+      <c r="D86">
+        <v>0.42388719000000002</v>
+      </c>
+      <c r="E86">
+        <v>-6.5604220000000005E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.28530457999999997</v>
+      </c>
+      <c r="C87">
+        <v>1.2523370000000001E-2</v>
+      </c>
+      <c r="D87">
+        <v>0.39083314000000002</v>
+      </c>
+      <c r="E87">
+        <v>-2.893716E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0.24931322</v>
+      </c>
+      <c r="C88">
+        <v>3.5972030000000002E-2</v>
+      </c>
+      <c r="D88">
+        <v>0.35277069</v>
+      </c>
+      <c r="E88">
+        <v>3.94451E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0.21131422999999999</v>
+      </c>
+      <c r="C89">
+        <v>5.6549849999999999E-2</v>
+      </c>
+      <c r="D89">
+        <v>0.31043916999999999</v>
+      </c>
+      <c r="E89">
+        <v>3.3708809999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0.17111412000000001</v>
+      </c>
+      <c r="C90">
+        <v>7.1339639999999996E-2</v>
+      </c>
+      <c r="D90">
+        <v>0.26477492000000002</v>
+      </c>
+      <c r="E90">
+        <v>5.7481909999999997E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0.13103697</v>
+      </c>
+      <c r="C91">
+        <v>8.0334260000000005E-2</v>
+      </c>
+      <c r="D91">
+        <v>0.21779863999999999</v>
+      </c>
+      <c r="E91">
+        <v>7.5289529999999993E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>9.2251899999999998E-2</v>
+      </c>
+      <c r="C92">
+        <v>8.552179E-2</v>
+      </c>
+      <c r="D92">
+        <v>0.17079173</v>
+      </c>
+      <c r="E92">
+        <v>8.8093939999999996E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5.7536789999999997E-2</v>
+      </c>
+      <c r="C93">
+        <v>8.6407040000000004E-2</v>
+      </c>
+      <c r="D93">
+        <v>0.12666947000000001</v>
+      </c>
+      <c r="E93">
+        <v>9.6825620000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2.6118969999999998E-2</v>
+      </c>
+      <c r="C94">
+        <v>8.6407040000000004E-2</v>
+      </c>
+      <c r="D94">
+        <v>8.4370440000000005E-2</v>
+      </c>
+      <c r="E94">
+        <v>0.10242016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3.6847199999999998E-3</v>
+      </c>
+      <c r="C95">
+        <v>8.5861649999999998E-2</v>
+      </c>
+      <c r="D95">
+        <v>5.0899449999999999E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.10507848</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>-1.009996E-2</v>
+      </c>
+      <c r="C96">
+        <v>8.5296769999999994E-2</v>
+      </c>
+      <c r="D96">
+        <v>2.537886E-2</v>
+      </c>
+      <c r="E96">
+        <v>0.10618469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>-1.7669150000000002E-2</v>
+      </c>
+      <c r="C97">
+        <v>8.4712419999999997E-2</v>
+      </c>
+      <c r="D97">
+        <v>6.7531300000000004E-3</v>
+      </c>
+      <c r="E97">
+        <v>0.1063829</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>-1.7706389999999999E-2</v>
+      </c>
+      <c r="C98">
+        <v>8.4108589999999997E-2</v>
+      </c>
+      <c r="D98">
+        <v>-6.0912300000000004E-3</v>
+      </c>
+      <c r="E98">
+        <v>0.10609341999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>-1.7706389999999999E-2</v>
+      </c>
+      <c r="C99">
+        <v>8.4108589999999997E-2</v>
+      </c>
+      <c r="D99">
+        <v>-1.4303059999999999E-2</v>
+      </c>
+      <c r="E99">
+        <v>0.10577419</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>-1.523099E-2</v>
+      </c>
+      <c r="C100">
+        <v>8.41224E-2</v>
+      </c>
+      <c r="D100">
+        <v>-1.6428789999999999E-2</v>
+      </c>
+      <c r="E100">
+        <v>0.10553336000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>-8.9993899999999995E-3</v>
+      </c>
+      <c r="C101">
+        <v>8.4178840000000005E-2</v>
+      </c>
+      <c r="D101">
+        <v>-1.2534139999999999E-2</v>
+      </c>
+      <c r="E101">
+        <v>0.10539915</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>3.4838099999999999E-3</v>
+      </c>
+      <c r="C102">
+        <v>8.4237279999999998E-2</v>
+      </c>
+      <c r="D102">
+        <v>-1.5198E-3</v>
+      </c>
+      <c r="E102">
+        <v>0.10532225000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2.186194E-2</v>
+      </c>
+      <c r="C103">
+        <v>8.4297720000000007E-2</v>
+      </c>
+      <c r="D103">
+        <v>1.462228E-2</v>
+      </c>
+      <c r="E103">
+        <v>0.10530262999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>4.4394910000000003E-2</v>
+      </c>
+      <c r="C104">
+        <v>8.4344390000000005E-2</v>
+      </c>
+      <c r="D104">
+        <v>3.5398270000000003E-2</v>
+      </c>
+      <c r="E104">
+        <v>0.10534032</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7.0615079999999997E-2</v>
+      </c>
+      <c r="C105">
+        <v>8.4302240000000001E-2</v>
+      </c>
+      <c r="D105">
+        <v>6.0857479999999999E-2</v>
+      </c>
+      <c r="E105">
+        <v>0.10532705000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>9.9076040000000004E-2</v>
+      </c>
+      <c r="C106">
+        <v>8.3045240000000006E-2</v>
+      </c>
+      <c r="D106">
+        <v>9.1361040000000004E-2</v>
+      </c>
+      <c r="E106">
+        <v>0.10403381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0.13070010000000001</v>
+      </c>
+      <c r="C107">
+        <v>7.9204129999999998E-2</v>
+      </c>
+      <c r="D107">
+        <v>0.12614355999999999</v>
+      </c>
+      <c r="E107">
+        <v>0.10020569</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0.16495103</v>
+      </c>
+      <c r="C108">
+        <v>7.2023909999999997E-2</v>
+      </c>
+      <c r="D108">
+        <v>0.16461745999999999</v>
+      </c>
+      <c r="E108">
+        <v>9.3440060000000005E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0.20145353999999999</v>
+      </c>
+      <c r="C109">
+        <v>5.890952E-2</v>
+      </c>
+      <c r="D109">
+        <v>0.20617421999999999</v>
+      </c>
+      <c r="E109">
+        <v>8.1447619999999998E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>0.23801981999999999</v>
+      </c>
+      <c r="C110">
+        <v>3.9118130000000001E-2</v>
+      </c>
+      <c r="D110">
+        <v>0.2490049</v>
+      </c>
+      <c r="E110">
+        <v>6.2922329999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>0.27350374999999999</v>
+      </c>
+      <c r="C111">
+        <v>1.2912969999999999E-2</v>
+      </c>
+      <c r="D111">
+        <v>0.29159415</v>
+      </c>
+      <c r="E111">
+        <v>3.7681569999999998E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0.30612463000000001</v>
+      </c>
+      <c r="C112">
+        <v>-1.8740119999999999E-2</v>
+      </c>
+      <c r="D112">
+        <v>0.3324143</v>
+      </c>
+      <c r="E112">
+        <v>7.1831000000000004E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0.33340248</v>
+      </c>
+      <c r="C113">
+        <v>-5.4110360000000003E-2</v>
+      </c>
+      <c r="D113">
+        <v>0.36937736999999998</v>
+      </c>
+      <c r="E113">
+        <v>-2.8645029999999998E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0.35501381999999998</v>
+      </c>
+      <c r="C114">
+        <v>-8.2778439999999995E-2</v>
+      </c>
+      <c r="D114">
+        <v>0.40143489999999998</v>
+      </c>
+      <c r="E114">
+        <v>-5.9880790000000003E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>0.36904481</v>
+      </c>
+      <c r="C115">
+        <v>-0.10834851</v>
+      </c>
+      <c r="D115">
+        <v>0.42615431999999998</v>
+      </c>
+      <c r="E115">
+        <v>-9.1722399999999996E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0.37940603000000001</v>
+      </c>
+      <c r="C116">
+        <v>-0.12767300000000001</v>
+      </c>
+      <c r="D116">
+        <v>0.44731298000000003</v>
+      </c>
+      <c r="E116">
+        <v>-0.11991072999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>0.38585122999999999</v>
+      </c>
+      <c r="C117">
+        <v>-0.13931218000000001</v>
+      </c>
+      <c r="D117">
+        <v>0.46312910000000002</v>
+      </c>
+      <c r="E117">
+        <v>-0.14436304999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>0.38973078</v>
+      </c>
+      <c r="C118">
+        <v>-0.15686907</v>
+      </c>
+      <c r="D118">
+        <v>0.47464600000000001</v>
+      </c>
+      <c r="E118">
+        <v>-0.16968596999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0.39382386000000003</v>
+      </c>
+      <c r="C119">
+        <v>-0.18939818</v>
+      </c>
+      <c r="D119">
+        <v>0.48255408</v>
+      </c>
+      <c r="E119">
+        <v>-0.21116671000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0.39527773999999999</v>
+      </c>
+      <c r="C120">
+        <v>-0.22046113000000001</v>
+      </c>
+      <c r="D120">
+        <v>0.48801394999999997</v>
+      </c>
+      <c r="E120">
+        <v>-0.24509220000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0.39596376</v>
+      </c>
+      <c r="C121">
+        <v>-0.25009917999999998</v>
+      </c>
+      <c r="D121">
+        <v>0.49110337999999998</v>
+      </c>
+      <c r="E121">
+        <v>-0.27247315999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>0.39599215999999998</v>
+      </c>
+      <c r="C122">
+        <v>-0.27336872000000001</v>
+      </c>
+      <c r="D122">
+        <v>0.49277946</v>
+      </c>
+      <c r="E122">
+        <v>-0.29427069</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>0.39538624999999999</v>
+      </c>
+      <c r="C123">
+        <v>-0.27336872000000001</v>
+      </c>
+      <c r="D123">
+        <v>0.49320433000000002</v>
+      </c>
+      <c r="E123">
+        <v>-0.31156065999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>0.39435837000000001</v>
+      </c>
+      <c r="C124">
+        <v>-0.27272787999999998</v>
+      </c>
+      <c r="D124">
+        <v>0.49325471999999998</v>
+      </c>
+      <c r="E124">
+        <v>-0.32376081000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>0.39323701999999999</v>
+      </c>
+      <c r="C125">
+        <v>-0.26834862999999998</v>
+      </c>
+      <c r="D125">
+        <v>0.49245362999999998</v>
+      </c>
+      <c r="E125">
+        <v>-0.32838708</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>0.39086728999999998</v>
+      </c>
+      <c r="C126">
+        <v>-0.25876325</v>
+      </c>
+      <c r="D126">
+        <v>0.49020520000000001</v>
+      </c>
+      <c r="E126">
+        <v>-0.32473478</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>0.38887882000000001</v>
+      </c>
+      <c r="C127">
+        <v>-0.24302001000000001</v>
+      </c>
+      <c r="D127">
+        <v>0.48810044000000002</v>
+      </c>
+      <c r="E127">
+        <v>-0.31283671000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>0.38653478000000002</v>
+      </c>
+      <c r="C128">
+        <v>-0.21956861</v>
+      </c>
+      <c r="D128">
+        <v>0.48597041000000002</v>
+      </c>
+      <c r="E128">
+        <v>-0.29194131000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>0.38222948000000001</v>
+      </c>
+      <c r="C129">
+        <v>-0.19085740000000001</v>
+      </c>
+      <c r="D129">
+        <v>0.48163241000000001</v>
+      </c>
+      <c r="E129">
+        <v>-0.26458371000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>0.37587728999999998</v>
+      </c>
+      <c r="C130">
+        <v>-0.15748926999999999</v>
+      </c>
+      <c r="D130">
+        <v>0.47428422999999997</v>
+      </c>
+      <c r="E130">
+        <v>-0.23099813999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>0.36283084999999998</v>
+      </c>
+      <c r="C131">
+        <v>-0.12074981999999999</v>
+      </c>
+      <c r="D131">
+        <v>0.46105342999999999</v>
+      </c>
+      <c r="E131">
+        <v>-0.19288172000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>0.34142541999999998</v>
+      </c>
+      <c r="C132">
+        <v>-8.3137299999999997E-2</v>
+      </c>
+      <c r="D132">
+        <v>0.44091492999999998</v>
+      </c>
+      <c r="E132">
+        <v>-0.15152399</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>0.31300640000000002</v>
+      </c>
+      <c r="C133">
+        <v>-4.662463E-2</v>
+      </c>
+      <c r="D133">
+        <v>0.41394171000000002</v>
+      </c>
+      <c r="E133">
+        <v>-0.10907351999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>0.27807978</v>
+      </c>
+      <c r="C134">
+        <v>-1.33648E-2</v>
+      </c>
+      <c r="D134">
+        <v>0.38068697000000001</v>
+      </c>
+      <c r="E134">
+        <v>-6.7670770000000005E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>0.24022256</v>
+      </c>
+      <c r="C135">
+        <v>1.4422030000000001E-2</v>
+      </c>
+      <c r="D135">
+        <v>0.34250423000000002</v>
+      </c>
+      <c r="E135">
+        <v>-3.0516149999999999E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>0.20087123000000001</v>
+      </c>
+      <c r="C136">
+        <v>3.826156E-2</v>
+      </c>
+      <c r="D136">
+        <v>0.29989823999999998</v>
+      </c>
+      <c r="E136">
+        <v>4.0876699999999998E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>0.16186348</v>
+      </c>
+      <c r="C137">
+        <v>5.524569E-2</v>
+      </c>
+      <c r="D137">
+        <v>0.25501940000000001</v>
+      </c>
+      <c r="E137">
+        <v>3.2011129999999999E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0.12482738</v>
+      </c>
+      <c r="C138">
+        <v>6.5584790000000004E-2</v>
+      </c>
+      <c r="D138">
+        <v>0.20997043000000001</v>
+      </c>
+      <c r="E138">
+        <v>5.3012080000000003E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>9.036814E-2</v>
+      </c>
+      <c r="C139">
+        <v>7.2195599999999999E-2</v>
+      </c>
+      <c r="D139">
+        <v>0.16625715999999999</v>
+      </c>
+      <c r="E139">
+        <v>6.8109349999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>6.019861E-2</v>
+      </c>
+      <c r="C140">
+        <v>7.3298890000000005E-2</v>
+      </c>
+      <c r="D140">
+        <v>0.12549606999999999</v>
+      </c>
+      <c r="E140">
+        <v>7.8408909999999998E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>3.472372E-2</v>
+      </c>
+      <c r="C141">
+        <v>7.3298890000000005E-2</v>
+      </c>
+      <c r="D141">
+        <v>8.9022180000000006E-2</v>
+      </c>
+      <c r="E141">
+        <v>8.4951090000000007E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1.360214E-2</v>
+      </c>
+      <c r="C142">
+        <v>7.1929389999999996E-2</v>
+      </c>
+      <c r="D142">
+        <v>5.7116590000000002E-2</v>
+      </c>
+      <c r="E142">
+        <v>8.7305629999999995E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>-1.12725E-3</v>
+      </c>
+      <c r="C143">
+        <v>7.0510970000000006E-2</v>
+      </c>
+      <c r="D143">
+        <v>3.2148469999999998E-2</v>
+      </c>
+      <c r="E143">
+        <v>8.7962120000000005E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>-1.0014739999999999E-2</v>
+      </c>
+      <c r="C144">
+        <v>6.9043649999999998E-2</v>
+      </c>
+      <c r="D144">
+        <v>1.3675319999999999E-2</v>
+      </c>
+      <c r="E144">
+        <v>8.7659310000000004E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>-1.4438690000000001E-2</v>
+      </c>
+      <c r="C145">
+        <v>6.7527409999999996E-2</v>
+      </c>
+      <c r="D145">
+        <v>6.1718000000000005E-4</v>
+      </c>
+      <c r="E145">
+        <v>8.6814050000000004E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>-1.5072530000000001E-2</v>
+      </c>
+      <c r="C146">
+        <v>6.7527409999999996E-2</v>
+      </c>
+      <c r="D146">
+        <v>-8.1519000000000001E-3</v>
+      </c>
+      <c r="E146">
+        <v>8.6012450000000004E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>-1.5072530000000001E-2</v>
+      </c>
+      <c r="C147">
+        <v>6.9485099999999994E-2</v>
+      </c>
+      <c r="D147">
+        <v>-1.364313E-2</v>
+      </c>
+      <c r="E147">
+        <v>8.7433739999999996E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>-1.1694980000000001E-2</v>
+      </c>
+      <c r="C148">
+        <v>7.2146740000000001E-2</v>
+      </c>
+      <c r="D148">
+        <v>-1.318423E-2</v>
+      </c>
+      <c r="E148">
+        <v>8.945417E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>-1.1075600000000001E-3</v>
+      </c>
+      <c r="C149">
+        <v>7.4900939999999999E-2</v>
+      </c>
+      <c r="D149">
+        <v>-4.0460799999999996E-3</v>
+      </c>
+      <c r="E149">
+        <v>9.1331529999999994E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1.5790749999999999E-2</v>
+      </c>
+      <c r="C150">
+        <v>7.7747700000000003E-2</v>
+      </c>
+      <c r="D150">
+        <v>1.1078950000000001E-2</v>
+      </c>
+      <c r="E150">
+        <v>9.3065809999999999E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>3.9529660000000001E-2</v>
+      </c>
+      <c r="C151">
+        <v>7.8449669999999999E-2</v>
+      </c>
+      <c r="D151">
+        <v>3.1343450000000002E-2</v>
+      </c>
+      <c r="E151">
+        <v>9.465701E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6.7369009999999993E-2</v>
+      </c>
+      <c r="C152">
+        <v>7.8449669999999999E-2</v>
+      </c>
+      <c r="D152">
+        <v>5.6556809999999999E-2</v>
+      </c>
+      <c r="E152">
+        <v>9.5944810000000005E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>9.6299599999999999E-2</v>
+      </c>
+      <c r="C153">
+        <v>7.7437469999999994E-2</v>
+      </c>
+      <c r="D153">
+        <v>8.6971699999999999E-2</v>
+      </c>
+      <c r="E153">
+        <v>9.5862810000000007E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0.12771790999999999</v>
+      </c>
+      <c r="C154">
+        <v>7.3729119999999995E-2</v>
+      </c>
+      <c r="D154">
+        <v>0.12166272</v>
+      </c>
+      <c r="E154">
+        <v>9.2793390000000003E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>0.16195145</v>
+      </c>
+      <c r="C155">
+        <v>6.521064E-2</v>
+      </c>
+      <c r="D155">
+        <v>0.16029884999999999</v>
+      </c>
+      <c r="E155">
+        <v>8.4920809999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>0.19846660999999999</v>
+      </c>
+      <c r="C156">
+        <v>5.1638709999999997E-2</v>
+      </c>
+      <c r="D156">
+        <v>0.20225686000000001</v>
+      </c>
+      <c r="E156">
+        <v>7.2712529999999997E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>0.23537304000000001</v>
+      </c>
+      <c r="C157">
+        <v>3.164902E-2</v>
+      </c>
+      <c r="D157">
+        <v>0.24569907999999999</v>
+      </c>
+      <c r="E157">
+        <v>5.4477110000000002E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.27109780999999999</v>
+      </c>
+      <c r="C158">
+        <v>4.9012300000000003E-3</v>
+      </c>
+      <c r="D158">
+        <v>0.28839308000000002</v>
+      </c>
+      <c r="E158">
+        <v>2.9007370000000001E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>0.30449369999999998</v>
+      </c>
+      <c r="C159">
+        <v>-2.6566880000000001E-2</v>
+      </c>
+      <c r="D159">
+        <v>0.32991365</v>
+      </c>
+      <c r="E159">
+        <v>-2.6712900000000002E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>0.33107001000000003</v>
+      </c>
+      <c r="C160">
+        <v>-6.3717659999999995E-2</v>
+      </c>
+      <c r="D160">
+        <v>0.36601144000000002</v>
+      </c>
+      <c r="E160">
+        <v>-4.0424880000000003E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>0.35151138999999998</v>
+      </c>
+      <c r="C161">
+        <v>-0.10415068</v>
+      </c>
+      <c r="D161">
+        <v>0.39721902999999997</v>
+      </c>
+      <c r="E161">
+        <v>-8.318122E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>0.36572933000000002</v>
+      </c>
+      <c r="C162">
+        <v>-0.14435529999999999</v>
+      </c>
+      <c r="D162">
+        <v>0.42231767999999997</v>
+      </c>
+      <c r="E162">
+        <v>-0.12835573</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>0.37388808000000001</v>
+      </c>
+      <c r="C163">
+        <v>-0.18335441999999999</v>
+      </c>
+      <c r="D163">
+        <v>0.44204217000000001</v>
+      </c>
+      <c r="E163">
+        <v>-0.17406431999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>0.38033724000000002</v>
+      </c>
+      <c r="C164">
+        <v>-0.21906829999999999</v>
+      </c>
+      <c r="D164">
+        <v>0.45726930999999998</v>
+      </c>
+      <c r="E164">
+        <v>-0.21862213</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>0.38533747000000002</v>
+      </c>
+      <c r="C165">
+        <v>-0.25036575999999999</v>
+      </c>
+      <c r="D165">
+        <v>0.46937904000000003</v>
+      </c>
+      <c r="E165">
+        <v>-0.26081777</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>0.38932756000000002</v>
+      </c>
+      <c r="C166">
+        <v>-0.27630934000000001</v>
+      </c>
+      <c r="D166">
+        <v>0.47781411000000001</v>
+      </c>
+      <c r="E166">
+        <v>-0.29808130999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>0.39238613999999999</v>
+      </c>
+      <c r="C167">
+        <v>-0.29410571000000002</v>
+      </c>
+      <c r="D167">
+        <v>0.48357435999999998</v>
+      </c>
+      <c r="E167">
+        <v>-0.32695713999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>0.39446398999999999</v>
+      </c>
+      <c r="C168">
+        <v>-0.30463642000000002</v>
+      </c>
+      <c r="D168">
+        <v>0.48748425000000001</v>
+      </c>
+      <c r="E168">
+        <v>-0.34851196000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>0.39488139999999999</v>
+      </c>
+      <c r="C169">
+        <v>-0.30869143999999998</v>
+      </c>
+      <c r="D169">
+        <v>0.49015236000000001</v>
+      </c>
+      <c r="E169">
+        <v>-0.36381707000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>0.39503354000000002</v>
+      </c>
+      <c r="C170">
+        <v>-0.30869143999999998</v>
+      </c>
+      <c r="D170">
+        <v>0.49174085000000001</v>
+      </c>
+      <c r="E170">
+        <v>-0.37404796000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>0.39504376000000002</v>
+      </c>
+      <c r="C171">
+        <v>-0.30656871000000002</v>
+      </c>
+      <c r="D171">
+        <v>0.49274254000000001</v>
+      </c>
+      <c r="E171">
+        <v>-0.37815514</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>0.39503354000000002</v>
+      </c>
+      <c r="C172">
+        <v>-0.30030918000000001</v>
+      </c>
+      <c r="D172">
+        <v>0.49344113000000001</v>
+      </c>
+      <c r="E172">
+        <v>-0.37537654999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0.39512151000000001</v>
+      </c>
+      <c r="C173">
+        <v>-0.28863496</v>
+      </c>
+      <c r="D173">
+        <v>0.49389498999999998</v>
+      </c>
+      <c r="E173">
+        <v>-0.36591792000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>0.39550324999999997</v>
+      </c>
+      <c r="C174">
+        <v>-0.27109413999999998</v>
+      </c>
+      <c r="D174">
+        <v>0.49424824000000001</v>
+      </c>
+      <c r="E174">
+        <v>-0.35091111000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>0.3956731</v>
+      </c>
+      <c r="C175">
+        <v>-0.24839315000000001</v>
+      </c>
+      <c r="D175">
+        <v>0.49429234999999999</v>
+      </c>
+      <c r="E175">
+        <v>-0.33008766</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>0.39359543000000002</v>
+      </c>
+      <c r="C176">
+        <v>-0.19776383</v>
+      </c>
+      <c r="D176">
+        <v>0.49210361000000002</v>
+      </c>
+      <c r="E176">
+        <v>-0.27855521</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>0.3896654</v>
+      </c>
+      <c r="C177">
+        <v>-0.14823518999999999</v>
+      </c>
+      <c r="D177">
+        <v>0.48838790999999998</v>
+      </c>
+      <c r="E177">
+        <v>-0.23029939999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>0.3851946</v>
+      </c>
+      <c r="C178">
+        <v>-9.7520570000000001E-2</v>
+      </c>
+      <c r="D178">
+        <v>0.48483974000000002</v>
+      </c>
+      <c r="E178">
+        <v>-0.18286967000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>0.36740561999999999</v>
+      </c>
+      <c r="C179">
+        <v>-5.0249130000000003E-2</v>
+      </c>
+      <c r="D179">
+        <v>0.46761819999999998</v>
+      </c>
+      <c r="E179">
+        <v>-0.13998949999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>0.34400180000000002</v>
+      </c>
+      <c r="C180">
+        <v>-3.0987299999999999E-2</v>
+      </c>
+      <c r="D180">
+        <v>0.44464606000000001</v>
+      </c>
+      <c r="E180">
+        <v>-9.7844929999999997E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>0.31341522999999999</v>
+      </c>
+      <c r="C181">
+        <v>-1.411695E-2</v>
+      </c>
+      <c r="D181">
+        <v>0.41584447000000002</v>
+      </c>
+      <c r="E181">
+        <v>-6.3635769999999994E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>0.27364513000000001</v>
+      </c>
+      <c r="C182">
+        <v>2.5474500000000001E-3</v>
+      </c>
+      <c r="D182">
+        <v>0.38203411999999998</v>
+      </c>
+      <c r="E182">
+        <v>-3.1328179999999997E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>0.23925516999999999</v>
+      </c>
+      <c r="C183">
+        <v>2.1590370000000001E-2</v>
+      </c>
+      <c r="D183">
+        <v>0.34401217000000001</v>
+      </c>
+      <c r="E183">
+        <v>-1.7581999999999999E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>0.20380934000000001</v>
+      </c>
+      <c r="C184">
+        <v>3.7948809999999999E-2</v>
+      </c>
+      <c r="D184">
+        <v>0.30311900000000003</v>
+      </c>
+      <c r="E184">
+        <v>2.4442289999999998E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>0.16866067000000001</v>
+      </c>
+      <c r="C185">
+        <v>5.6226449999999997E-2</v>
+      </c>
+      <c r="D185">
+        <v>0.26068606999999999</v>
+      </c>
+      <c r="E185">
+        <v>4.490769E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>0.135352</v>
+      </c>
+      <c r="C186">
+        <v>6.8582850000000001E-2</v>
+      </c>
+      <c r="D186">
+        <v>0.21882563999999999</v>
+      </c>
+      <c r="E186">
+        <v>6.1239450000000001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>0.10379399</v>
+      </c>
+      <c r="C187">
+        <v>7.5567220000000004E-2</v>
+      </c>
+      <c r="D187">
+        <v>0.17772304999999999</v>
+      </c>
+      <c r="E187">
+        <v>7.3704779999999998E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7.5663229999999998E-2</v>
+      </c>
+      <c r="C188">
+        <v>7.7735460000000006E-2</v>
+      </c>
+      <c r="D188">
+        <v>0.14023088</v>
+      </c>
+      <c r="E188">
+        <v>8.2975240000000006E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>5.112531E-2</v>
+      </c>
+      <c r="C189">
+        <v>7.7822600000000006E-2</v>
+      </c>
+      <c r="D189">
+        <v>0.10585345</v>
+      </c>
+      <c r="E189">
+        <v>8.9383279999999996E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2.8130740000000001E-2</v>
+      </c>
+      <c r="C190">
+        <v>7.7743900000000005E-2</v>
+      </c>
+      <c r="D190">
+        <v>7.3601399999999997E-2</v>
+      </c>
+      <c r="E190">
+        <v>9.3639150000000004E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>1.1127079999999999E-2</v>
+      </c>
+      <c r="C191">
+        <v>7.4498510000000004E-2</v>
+      </c>
+      <c r="D191">
+        <v>4.7295429999999999E-2</v>
+      </c>
+      <c r="E191">
+        <v>9.2555310000000002E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>-7.1288000000000005E-4</v>
+      </c>
+      <c r="C192">
+        <v>7.1137320000000004E-2</v>
+      </c>
+      <c r="D192">
+        <v>2.7362399999999999E-2</v>
+      </c>
+      <c r="E192">
+        <v>9.0512800000000004E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>-7.7398700000000003E-3</v>
+      </c>
+      <c r="C193">
+        <v>6.7660319999999996E-2</v>
+      </c>
+      <c r="D193">
+        <v>1.2792990000000001E-2</v>
+      </c>
+      <c r="E193">
+        <v>8.8103669999999995E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>-9.0770099999999999E-3</v>
+      </c>
+      <c r="C194">
+        <v>6.4157459999999999E-2</v>
+      </c>
+      <c r="D194">
+        <v>2.6130200000000002E-3</v>
+      </c>
+      <c r="E194">
+        <v>8.5844569999999995E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>-9.0770099999999999E-3</v>
+      </c>
+      <c r="C195">
+        <v>6.4157459999999999E-2</v>
+      </c>
+      <c r="D195">
+        <v>-4.1090500000000004E-3</v>
+      </c>
+      <c r="E195">
+        <v>8.3955849999999999E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>-7.5128900000000004E-3</v>
+      </c>
+      <c r="C196">
+        <v>6.4708769999999999E-2</v>
+      </c>
+      <c r="D196">
+        <v>-6.4985199999999998E-3</v>
+      </c>
+      <c r="E196">
+        <v>8.302756E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>-2.43232E-3</v>
+      </c>
+      <c r="C197">
+        <v>6.6777740000000002E-2</v>
+      </c>
+      <c r="D197">
+        <v>-3.5572400000000001E-3</v>
+      </c>
+      <c r="E197">
+        <v>8.3992529999999996E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>9.4138099999999999E-3</v>
+      </c>
+      <c r="C198">
+        <v>6.8919900000000006E-2</v>
+      </c>
+      <c r="D198">
+        <v>7.0153300000000002E-3</v>
+      </c>
+      <c r="E198">
+        <v>8.5097199999999998E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2.793325E-2</v>
+      </c>
+      <c r="C199">
+        <v>7.1135249999999997E-2</v>
+      </c>
+      <c r="D199">
+        <v>2.3570190000000001E-2</v>
+      </c>
+      <c r="E199">
+        <v>8.6341559999999998E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>5.218656E-2</v>
+      </c>
+      <c r="C200">
+        <v>7.2793709999999998E-2</v>
+      </c>
+      <c r="D200">
+        <v>4.542653E-2</v>
+      </c>
+      <c r="E200">
+        <v>8.7716390000000005E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>8.0810569999999998E-2</v>
+      </c>
+      <c r="C201">
+        <v>7.2793709999999998E-2</v>
+      </c>
+      <c r="D201">
+        <v>7.2284399999999999E-2</v>
+      </c>
+      <c r="E201">
+        <v>8.8851340000000001E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>0.11126357000000001</v>
+      </c>
+      <c r="C202">
+        <v>6.9703039999999994E-2</v>
+      </c>
+      <c r="D202">
+        <v>0.10419970000000001</v>
+      </c>
+      <c r="E202">
+        <v>8.6490129999999998E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>0.14377234999999999</v>
+      </c>
+      <c r="C203">
+        <v>6.0365240000000001E-2</v>
+      </c>
+      <c r="D203">
+        <v>0.13996802</v>
+      </c>
+      <c r="E203">
+        <v>7.7785339999999994E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>0.17847109</v>
+      </c>
+      <c r="C204">
+        <v>4.8025489999999997E-2</v>
+      </c>
+      <c r="D204">
+        <v>0.17945416</v>
+      </c>
+      <c r="E204">
+        <v>6.7105289999999998E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>0.21471065</v>
+      </c>
+      <c r="C205">
+        <v>2.8556290000000002E-2</v>
+      </c>
+      <c r="D205">
+        <v>0.22158810000000001</v>
+      </c>
+      <c r="E205">
+        <v>5.0514749999999997E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>0.25011876</v>
+      </c>
+      <c r="C206">
+        <v>4.2079099999999996E-3</v>
+      </c>
+      <c r="D206">
+        <v>0.26402119000000002</v>
+      </c>
+      <c r="E206">
+        <v>2.7764770000000001E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>0.28236719999999998</v>
+      </c>
+      <c r="C207">
+        <v>-2.3181460000000001E-2</v>
+      </c>
+      <c r="D207">
+        <v>0.30360283999999998</v>
+      </c>
+      <c r="E207">
+        <v>-1.61824E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>0.31066560999999998</v>
+      </c>
+      <c r="C208">
+        <v>-5.6225480000000001E-2</v>
+      </c>
+      <c r="D208">
+        <v>0.34074726999999999</v>
+      </c>
+      <c r="E208">
+        <v>-3.5020700000000002E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>0.33251235000000001</v>
+      </c>
+      <c r="C209">
+        <v>-9.1644589999999998E-2</v>
+      </c>
+      <c r="D209">
+        <v>0.37305936000000001</v>
+      </c>
+      <c r="E209">
+        <v>-7.2741239999999999E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>0.34751543000000001</v>
+      </c>
+      <c r="C210">
+        <v>-0.12773961</v>
+      </c>
+      <c r="D210">
+        <v>0.39913553000000002</v>
+      </c>
+      <c r="E210">
+        <v>-0.11311816</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>0.35779315</v>
+      </c>
+      <c r="C211">
+        <v>-0.16182466000000001</v>
+      </c>
+      <c r="D211">
+        <v>0.41915311999999999</v>
+      </c>
+      <c r="E211">
+        <v>-0.15410312000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>0.36280554999999998</v>
+      </c>
+      <c r="C212">
+        <v>-0.19431318</v>
+      </c>
+      <c r="D212">
+        <v>0.43389842000000001</v>
+      </c>
+      <c r="E212">
+        <v>-0.19395699999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>0.36558827999999999</v>
+      </c>
+      <c r="C213">
+        <v>-0.22307830000000001</v>
+      </c>
+      <c r="D213">
+        <v>0.44479068999999999</v>
+      </c>
+      <c r="E213">
+        <v>-0.23188247000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>0.36789453</v>
+      </c>
+      <c r="C214">
+        <v>-0.24808522999999999</v>
+      </c>
+      <c r="D214">
+        <v>0.45255539</v>
+      </c>
+      <c r="E214">
+        <v>-0.26695412000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>0.36999872</v>
+      </c>
+      <c r="C215">
+        <v>-0.26923057</v>
+      </c>
+      <c r="D215">
+        <v>0.45780947999999999</v>
+      </c>
+      <c r="E215">
+        <v>-0.29819345000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>0.37198448000000001</v>
+      </c>
+      <c r="C216">
+        <v>-0.28702316</v>
+      </c>
+      <c r="D216">
+        <v>0.46133921</v>
+      </c>
+      <c r="E216">
+        <v>-0.32533076</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>0.37318388000000002</v>
+      </c>
+      <c r="C217">
+        <v>-0.29927796000000001</v>
+      </c>
+      <c r="D217">
+        <v>0.46358025000000003</v>
+      </c>
+      <c r="E217">
+        <v>-0.34600732000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>0.37374460999999998</v>
+      </c>
+      <c r="C218">
+        <v>-0.30646464000000001</v>
+      </c>
+      <c r="D218">
+        <v>0.46505529000000001</v>
+      </c>
+      <c r="E218">
+        <v>-0.36113244</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>0.37403493999999998</v>
+      </c>
+      <c r="C219">
+        <v>-0.30971667000000003</v>
+      </c>
+      <c r="D219">
+        <v>0.46609265</v>
+      </c>
+      <c r="E219">
+        <v>-0.37174963999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>0.37411573999999997</v>
+      </c>
+      <c r="C220">
+        <v>-0.30971667000000003</v>
+      </c>
+      <c r="D220">
+        <v>0.46681145000000002</v>
+      </c>
+      <c r="E220">
+        <v>-0.37883386000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>0.37411573999999997</v>
+      </c>
+      <c r="C221">
+        <v>-0.30947655000000002</v>
+      </c>
+      <c r="D221">
+        <v>0.46726641000000002</v>
+      </c>
+      <c r="E221">
+        <v>-0.38298761999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>0.37347266000000001</v>
+      </c>
+      <c r="C222">
+        <v>-0.30670181000000002</v>
+      </c>
+      <c r="D222">
+        <v>0.46681901999999997</v>
+      </c>
+      <c r="E222">
+        <v>-0.38254790999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>0.37199047000000002</v>
+      </c>
+      <c r="C223">
+        <v>-0.29979466999999999</v>
+      </c>
+      <c r="D223">
+        <v>0.46545695999999998</v>
+      </c>
+      <c r="E223">
+        <v>-0.37685063000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>0.36998713</v>
+      </c>
+      <c r="C224">
+        <v>-0.28745037000000001</v>
+      </c>
+      <c r="D224">
+        <v>0.46371101999999997</v>
+      </c>
+      <c r="E224">
+        <v>-0.36570578999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>0.36662792999999999</v>
+      </c>
+      <c r="C225">
+        <v>-0.26888114000000002</v>
+      </c>
+      <c r="D225">
+        <v>0.46080389999999999</v>
+      </c>
+      <c r="E225">
+        <v>-0.34922494999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>0.36330831000000002</v>
+      </c>
+      <c r="C226">
+        <v>-0.24443886000000001</v>
+      </c>
+      <c r="D226">
+        <v>0.45765298999999998</v>
+      </c>
+      <c r="E226">
+        <v>-0.32630031999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>0.35732391000000002</v>
+      </c>
+      <c r="C227">
+        <v>-0.21491816999999999</v>
+      </c>
+      <c r="D227">
+        <v>0.45127481000000003</v>
+      </c>
+      <c r="E227">
+        <v>-0.29711546999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>0.34644106000000002</v>
+      </c>
+      <c r="C228">
+        <v>-0.18108990999999999</v>
+      </c>
+      <c r="D228">
+        <v>0.44024237999999999</v>
+      </c>
+      <c r="E228">
+        <v>-0.26230246000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>0.32920092000000001</v>
+      </c>
+      <c r="C229">
+        <v>-0.14540620000000001</v>
+      </c>
+      <c r="D229">
+        <v>0.42282465000000002</v>
+      </c>
+      <c r="E229">
+        <v>-0.22462235</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>0.30579168000000001</v>
+      </c>
+      <c r="C230">
+        <v>-0.10621265000000001</v>
+      </c>
+      <c r="D230">
+        <v>0.40117458</v>
+      </c>
+      <c r="E230">
+        <v>-0.18081439999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>0.27675068000000003</v>
+      </c>
+      <c r="C231">
+        <v>-6.7392949999999993E-2</v>
+      </c>
+      <c r="D231">
+        <v>0.37330380000000002</v>
+      </c>
+      <c r="E231">
+        <v>-0.13555170999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>0.24383221999999999</v>
+      </c>
+      <c r="C232">
+        <v>-3.2720010000000001E-2</v>
+      </c>
+      <c r="D232">
+        <v>0.34012063999999997</v>
+      </c>
+      <c r="E232">
+        <v>-9.3019459999999998E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>0.20858778</v>
+      </c>
+      <c r="C233">
+        <v>1.6588499999999999E-3</v>
+      </c>
+      <c r="D233">
+        <v>0.30166053999999998</v>
+      </c>
+      <c r="E233">
+        <v>-5.1046380000000002E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>0.17809741000000001</v>
+      </c>
+      <c r="C234">
+        <v>2.8267299999999999E-2</v>
+      </c>
+      <c r="D234">
+        <v>0.26801509000000001</v>
+      </c>
+      <c r="E234">
+        <v>-1.2989540000000001E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>0.15096872</v>
+      </c>
+      <c r="C235">
+        <v>4.6160430000000002E-2</v>
+      </c>
+      <c r="D235">
+        <v>0.23440647000000001</v>
+      </c>
+      <c r="E235">
+        <v>1.6811969999999999E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>0.13061787</v>
+      </c>
+      <c r="C236">
+        <v>5.8830630000000002E-2</v>
+      </c>
+      <c r="D236">
+        <v>0.20485962999999999</v>
+      </c>
+      <c r="E236">
+        <v>3.93091E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>0.11652395</v>
+      </c>
+      <c r="C237">
+        <v>6.3606529999999994E-2</v>
+      </c>
+      <c r="D237">
+        <v>0.17742604000000001</v>
+      </c>
+      <c r="E237">
+        <v>5.5538070000000002E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>9.9734370000000003E-2</v>
+      </c>
+      <c r="C238">
+        <v>6.3606529999999994E-2</v>
+      </c>
+      <c r="D238">
+        <v>0.15263692000000001</v>
+      </c>
+      <c r="E238">
+        <v>6.6579990000000006E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>6.6058199999999997E-2</v>
+      </c>
+      <c r="C239">
+        <v>6.1693150000000002E-2</v>
+      </c>
+      <c r="D239">
+        <v>0.10972962999999999</v>
+      </c>
+      <c r="E239">
+        <v>7.131345E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>3.2853800000000002E-2</v>
+      </c>
+      <c r="C240">
+        <v>5.8031439999999997E-2</v>
+      </c>
+      <c r="D240">
+        <v>7.3495379999999999E-2</v>
+      </c>
+      <c r="E240">
+        <v>7.1564470000000005E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>3.2867899999999999E-3</v>
+      </c>
+      <c r="C241">
+        <v>5.4001979999999998E-2</v>
+      </c>
+      <c r="D241">
+        <v>4.4234750000000003E-2</v>
+      </c>
+      <c r="E241">
+        <v>7.0031930000000006E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>-2.32038E-2</v>
+      </c>
+      <c r="C242">
+        <v>4.9835629999999999E-2</v>
+      </c>
+      <c r="D242">
+        <v>2.0910519999999998E-2</v>
+      </c>
+      <c r="E242">
+        <v>6.7592109999999997E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>-2.4464010000000001E-2</v>
+      </c>
+      <c r="C243">
+        <v>4.7719110000000002E-2</v>
+      </c>
+      <c r="D243">
+        <v>2.3847500000000002E-3</v>
+      </c>
+      <c r="E243">
+        <v>6.5095979999999998E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>-2.4464010000000001E-2</v>
+      </c>
+      <c r="C244">
+        <v>4.7454040000000003E-2</v>
+      </c>
+      <c r="D244">
+        <v>-1.147954E-2</v>
+      </c>
+      <c r="E244">
+        <v>6.304854E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>-2.3949649999999999E-2</v>
+      </c>
+      <c r="C245">
+        <v>4.7454040000000003E-2</v>
+      </c>
+      <c r="D245">
+        <v>-2.0806760000000001E-2</v>
+      </c>
+      <c r="E245">
+        <v>6.1449780000000002E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>-2.2911580000000001E-2</v>
+      </c>
+      <c r="C246">
+        <v>4.7960660000000002E-2</v>
+      </c>
+      <c r="D246">
+        <v>-2.5952220000000002E-2</v>
+      </c>
+      <c r="E246">
+        <v>6.0833459999999999E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>-2.1217139999999999E-2</v>
+      </c>
+      <c r="C247">
+        <v>4.8702420000000003E-2</v>
+      </c>
+      <c r="D247">
+        <v>-2.7342829999999999E-2</v>
+      </c>
+      <c r="E247">
+        <v>6.0835189999999997E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>-1.8875300000000001E-2</v>
+      </c>
+      <c r="C248">
+        <v>4.9722540000000003E-2</v>
+      </c>
+      <c r="D248">
+        <v>-2.5499730000000002E-2</v>
+      </c>
+      <c r="E248">
+        <v>6.1466920000000001E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>-1.6344310000000001E-2</v>
+      </c>
+      <c r="C249">
+        <v>5.1038449999999999E-2</v>
+      </c>
+      <c r="D249">
+        <v>-2.3049480000000001E-2</v>
+      </c>
+      <c r="E249">
+        <v>6.2483980000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="5" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-6.9860820000000004E-2</v>
+      </c>
+      <c r="C2">
+        <v>9.93536E-2</v>
+      </c>
+      <c r="D2">
+        <v>-5.4673079999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.14503752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-6.2230349999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.9933939999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>-6.013806E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.14496565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-4.2357270000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.9289939999999993E-2</v>
+      </c>
+      <c r="D4">
+        <v>-6.4849500000000004E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.14345095999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1.2090170000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>9.3786300000000003E-2</v>
+      </c>
+      <c r="D5">
+        <v>-6.8807400000000005E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.1406057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.511919E-2</v>
+      </c>
+      <c r="C6">
+        <v>8.4535529999999998E-2</v>
+      </c>
+      <c r="D6">
+        <v>-7.2011749999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.13708434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.7136680000000004E-2</v>
+      </c>
+      <c r="C7">
+        <v>7.3243409999999995E-2</v>
+      </c>
+      <c r="D7">
+        <v>-7.4462559999999997E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.13382556000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.10984014</v>
+      </c>
+      <c r="C8">
+        <v>5.115393E-2</v>
+      </c>
+      <c r="D8">
+        <v>-7.1191560000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.13103314999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.15134022</v>
+      </c>
+      <c r="C9">
+        <v>1.860612E-2</v>
+      </c>
+      <c r="D9">
+        <v>-6.022011E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.12734888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.18664012999999999</v>
+      </c>
+      <c r="C10">
+        <v>-2.5434100000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>-4.0806170000000003E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.12198884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.21930738999999999</v>
+      </c>
+      <c r="C11">
+        <v>-7.0658239999999997E-2</v>
+      </c>
+      <c r="D11">
+        <v>-1.2973510000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.11469967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.23474529</v>
+      </c>
+      <c r="C12">
+        <v>-0.12439392000000001</v>
+      </c>
+      <c r="D12">
+        <v>2.2079390000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.10309569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.24473321000000001</v>
+      </c>
+      <c r="C13">
+        <v>-0.17111399999999999</v>
+      </c>
+      <c r="D13">
+        <v>6.272759E-2</v>
+      </c>
+      <c r="E13">
+        <v>8.5121920000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.26565221</v>
+      </c>
+      <c r="C14">
+        <v>-0.21297483</v>
+      </c>
+      <c r="D14">
+        <v>0.10626823000000001</v>
+      </c>
+      <c r="E14">
+        <v>5.8661489999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.26610601</v>
+      </c>
+      <c r="C15">
+        <v>-0.24571130999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.15106262000000001</v>
+      </c>
+      <c r="E15">
+        <v>2.4483919999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.26249665</v>
+      </c>
+      <c r="C16">
+        <v>-0.26897221999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.19189601000000001</v>
+      </c>
+      <c r="E16">
+        <v>-1.8388910000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.26021060000000001</v>
+      </c>
+      <c r="C17">
+        <v>-0.28024339999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.22697705000000001</v>
+      </c>
+      <c r="E17">
+        <v>-6.6726549999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.25991574000000001</v>
+      </c>
+      <c r="C18">
+        <v>-0.27789849</v>
+      </c>
+      <c r="D18">
+        <v>0.25787898999999997</v>
+      </c>
+      <c r="E18">
+        <v>-0.11801817000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.3598538</v>
+      </c>
+      <c r="C19">
+        <v>-0.16510415000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.28129891000000001</v>
+      </c>
+      <c r="E19">
+        <v>-0.16078866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.36192220000000003</v>
+      </c>
+      <c r="C20">
+        <v>-0.14005844000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.29876003000000001</v>
+      </c>
+      <c r="E20">
+        <v>-0.19529495999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.35197773999999998</v>
+      </c>
+      <c r="C21">
+        <v>-0.10484836</v>
+      </c>
+      <c r="D21">
+        <v>0.31158337000000003</v>
+      </c>
+      <c r="E21">
+        <v>-0.22185075000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.24083367999999999</v>
+      </c>
+      <c r="C22">
+        <v>-0.16395757</v>
+      </c>
+      <c r="D22">
+        <v>0.32007860999999999</v>
+      </c>
+      <c r="E22">
+        <v>-0.24106964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.22573596000000001</v>
+      </c>
+      <c r="C23">
+        <v>-0.11524878</v>
+      </c>
+      <c r="D23">
+        <v>0.32460963999999998</v>
+      </c>
+      <c r="E23">
+        <v>-0.24188805999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.20890526000000001</v>
+      </c>
+      <c r="C24">
+        <v>-5.6485189999999998E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.32646199999999997</v>
+      </c>
+      <c r="E24">
+        <v>-0.23854011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.17076162</v>
+      </c>
+      <c r="C25">
+        <v>-3.00476E-3</v>
+      </c>
+      <c r="D25">
+        <v>0.32710444999999999</v>
+      </c>
+      <c r="E25">
+        <v>-0.22662573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.12054727</v>
+      </c>
+      <c r="C26">
+        <v>4.1251690000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.32227721999999998</v>
+      </c>
+      <c r="E26">
+        <v>-0.20807379000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6.4648289999999997E-2</v>
+      </c>
+      <c r="C27">
+        <v>7.2568820000000006E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.31378388000000002</v>
+      </c>
+      <c r="E27">
+        <v>-0.18847358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>9.5221699999999999E-3</v>
+      </c>
+      <c r="C28">
+        <v>8.8198269999999995E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.30203228999999998</v>
+      </c>
+      <c r="E28">
+        <v>-0.15978608999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>-4.3795639999999997E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.10187352</v>
+      </c>
+      <c r="D29">
+        <v>0.28216994000000001</v>
+      </c>
+      <c r="E29">
+        <v>-0.12207542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>-8.7029910000000002E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.10315429</v>
+      </c>
+      <c r="D30">
+        <v>0.25230219999999998</v>
+      </c>
+      <c r="E30">
+        <v>-7.9133140000000005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>-0.11390807999999999</v>
+      </c>
+      <c r="C31">
+        <v>9.7800590000000007E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.21249042000000001</v>
+      </c>
+      <c r="E31">
+        <v>-3.5423419999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>-0.13127457000000001</v>
+      </c>
+      <c r="C32">
+        <v>9.2135649999999999E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.16448055</v>
+      </c>
+      <c r="E32">
+        <v>4.2618899999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>-0.13790316999999999</v>
+      </c>
+      <c r="C33">
+        <v>8.8263930000000004E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.11016829</v>
+      </c>
+      <c r="E33">
+        <v>3.6927439999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>-0.13908456</v>
+      </c>
+      <c r="C34">
+        <v>9.0817880000000004E-2</v>
+      </c>
+      <c r="D34">
+        <v>5.3492079999999997E-2</v>
+      </c>
+      <c r="E34">
+        <v>6.3225320000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>-0.13405106999999999</v>
+      </c>
+      <c r="C35">
+        <v>9.394334E-2</v>
+      </c>
+      <c r="D35">
+        <v>-2.6628999999999997E-4</v>
+      </c>
+      <c r="E35">
+        <v>8.3439410000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>-0.12368717999999999</v>
+      </c>
+      <c r="C36">
+        <v>9.8450839999999998E-2</v>
+      </c>
+      <c r="D36">
+        <v>-4.6615499999999997E-2</v>
+      </c>
+      <c r="E36">
+        <v>9.8344749999999995E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>-0.10703279</v>
+      </c>
+      <c r="C37">
+        <v>0.10275373</v>
+      </c>
+      <c r="D37">
+        <v>-8.3258520000000003E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.10869241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>-8.0411319999999994E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.10432834000000001</v>
+      </c>
+      <c r="D38">
+        <v>-0.11066284999999999</v>
+      </c>
+      <c r="E38">
+        <v>0.11475435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>-4.4117740000000003E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.10008654</v>
+      </c>
+      <c r="D39">
+        <v>-0.12988804000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.11801614000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>-3.9956499999999999E-3</v>
+      </c>
+      <c r="C40">
+        <v>8.8939450000000003E-2</v>
+      </c>
+      <c r="D40">
+        <v>-0.14232895000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.11874282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4.0595279999999997E-2</v>
+      </c>
+      <c r="C41">
+        <v>7.5524330000000001E-2</v>
+      </c>
+      <c r="D41">
+        <v>-0.14537473000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.11887576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>8.8273379999999999E-2</v>
+      </c>
+      <c r="C42">
+        <v>5.3394820000000003E-2</v>
+      </c>
+      <c r="D42">
+        <v>-0.1385275</v>
+      </c>
+      <c r="E42">
+        <v>0.11884912</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.13639915</v>
+      </c>
+      <c r="C43">
+        <v>2.6537350000000001E-2</v>
+      </c>
+      <c r="D43">
+        <v>-0.12158976000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.11866471000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.17856900000000001</v>
+      </c>
+      <c r="C44">
+        <v>-1.3833639999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>-9.5813510000000005E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.11714251000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.21047083999999999</v>
+      </c>
+      <c r="C45">
+        <v>-6.2855149999999999E-2</v>
+      </c>
+      <c r="D45">
+        <v>-6.1942650000000002E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.11235531999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.24257918000000001</v>
+      </c>
+      <c r="C46">
+        <v>-0.10387626</v>
+      </c>
+      <c r="D46">
+        <v>-2.0715669999999999E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.10254739</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.24837028999999999</v>
+      </c>
+      <c r="C47">
+        <v>-0.15241442999999999</v>
+      </c>
+      <c r="D47">
+        <v>2.6654959999999998E-2</v>
+      </c>
+      <c r="E47">
+        <v>8.7258580000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.25642097000000003</v>
+      </c>
+      <c r="C48">
+        <v>-0.19202069999999999</v>
+      </c>
+      <c r="D48">
+        <v>7.7343430000000005E-2</v>
+      </c>
+      <c r="E48">
+        <v>6.3856570000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.25231515999999998</v>
+      </c>
+      <c r="C49">
+        <v>-0.22933497</v>
+      </c>
+      <c r="D49">
+        <v>0.12761135000000001</v>
+      </c>
+      <c r="E49">
+        <v>3.1300130000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.22250949</v>
+      </c>
+      <c r="C50">
+        <v>-0.25489897</v>
+      </c>
+      <c r="D50">
+        <v>0.17160679000000001</v>
+      </c>
+      <c r="E50">
+        <v>-7.1560800000000004E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.23794007</v>
+      </c>
+      <c r="C51">
+        <v>-0.27751516999999998</v>
+      </c>
+      <c r="D51">
+        <v>0.21030589999999999</v>
+      </c>
+      <c r="E51">
+        <v>-5.2251850000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.23807764000000001</v>
+      </c>
+      <c r="C52">
+        <v>-0.28891069000000003</v>
+      </c>
+      <c r="D52">
+        <v>0.24019631999999999</v>
+      </c>
+      <c r="E52">
+        <v>-0.10040590000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.23385149</v>
+      </c>
+      <c r="C53">
+        <v>-0.29139664999999998</v>
+      </c>
+      <c r="D53">
+        <v>0.26224797999999999</v>
+      </c>
+      <c r="E53">
+        <v>-0.14994508000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.25291397999999998</v>
+      </c>
+      <c r="C54">
+        <v>-0.29027196999999999</v>
+      </c>
+      <c r="D54">
+        <v>0.27870074</v>
+      </c>
+      <c r="E54">
+        <v>-0.19703430999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.23381647</v>
+      </c>
+      <c r="C55">
+        <v>-0.27788385999999998</v>
+      </c>
+      <c r="D55">
+        <v>0.28841749</v>
+      </c>
+      <c r="E55">
+        <v>-0.24059916000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.25178244999999999</v>
+      </c>
+      <c r="C56">
+        <v>-0.25844577000000002</v>
+      </c>
+      <c r="D56">
+        <v>0.29397299999999998</v>
+      </c>
+      <c r="E56">
+        <v>-0.27497205000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.25179747000000002</v>
+      </c>
+      <c r="C57">
+        <v>-0.22849800000000001</v>
+      </c>
+      <c r="D57">
+        <v>0.29670407999999998</v>
+      </c>
+      <c r="E57">
+        <v>-0.30089906</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.23844138000000001</v>
+      </c>
+      <c r="C58">
+        <v>-0.1951592</v>
+      </c>
+      <c r="D58">
+        <v>0.29778218000000001</v>
+      </c>
+      <c r="E58">
+        <v>-0.31950158000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0.22004946</v>
+      </c>
+      <c r="C59">
+        <v>-0.15719520000000001</v>
+      </c>
+      <c r="D59">
+        <v>0.29809341</v>
+      </c>
+      <c r="E59">
+        <v>-0.33214131000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.21501236000000001</v>
+      </c>
+      <c r="C60">
+        <v>-0.10266367</v>
+      </c>
+      <c r="D60">
+        <v>0.29797216999999998</v>
+      </c>
+      <c r="E60">
+        <v>-0.33519041999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.18001117999999999</v>
+      </c>
+      <c r="C61">
+        <v>-5.9051449999999998E-2</v>
+      </c>
+      <c r="D61">
+        <v>0.29679060000000002</v>
+      </c>
+      <c r="E61">
+        <v>-0.32780724999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.14063550999999999</v>
+      </c>
+      <c r="C62">
+        <v>-1.4879969999999999E-2</v>
+      </c>
+      <c r="D62">
+        <v>0.29571765999999999</v>
+      </c>
+      <c r="E62">
+        <v>-0.31107610000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>9.4701389999999996E-2</v>
+      </c>
+      <c r="C63">
+        <v>2.3801470000000002E-2</v>
+      </c>
+      <c r="D63">
+        <v>0.29132133999999998</v>
+      </c>
+      <c r="E63">
+        <v>-0.28580328999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>4.5520749999999999E-2</v>
+      </c>
+      <c r="C64">
+        <v>4.8280040000000003E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.28629154000000001</v>
+      </c>
+      <c r="E64">
+        <v>-0.24961159999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>-1.9927999999999999E-3</v>
+      </c>
+      <c r="C65">
+        <v>7.1836559999999994E-2</v>
+      </c>
+      <c r="D65">
+        <v>0.27315217000000003</v>
+      </c>
+      <c r="E65">
+        <v>-0.20737383000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>-4.7653349999999997E-2</v>
+      </c>
+      <c r="C66">
+        <v>8.6541099999999996E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.25178184999999997</v>
+      </c>
+      <c r="E66">
+        <v>-0.16016163999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>-8.1327410000000003E-2</v>
+      </c>
+      <c r="C67">
+        <v>8.5221420000000006E-2</v>
+      </c>
+      <c r="D67">
+        <v>0.22163472000000001</v>
+      </c>
+      <c r="E67">
+        <v>-0.11057451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>-0.10934049</v>
+      </c>
+      <c r="C68">
+        <v>8.1585329999999998E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.18317509000000001</v>
+      </c>
+      <c r="E68">
+        <v>-6.3237630000000003E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>-0.12789918</v>
+      </c>
+      <c r="C69">
+        <v>7.3623629999999995E-2</v>
+      </c>
+      <c r="D69">
+        <v>0.13818586999999999</v>
+      </c>
+      <c r="E69">
+        <v>-1.9061499999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>-0.14391717000000001</v>
+      </c>
+      <c r="C70">
+        <v>7.0796410000000004E-2</v>
+      </c>
+      <c r="D70">
+        <v>8.845016E-2</v>
+      </c>
+      <c r="E70">
+        <v>1.5940119999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>-0.15189306</v>
+      </c>
+      <c r="C71">
+        <v>6.7335370000000005E-2</v>
+      </c>
+      <c r="D71">
+        <v>3.8115499999999997E-2</v>
+      </c>
+      <c r="E71">
+        <v>4.2599119999999997E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>-0.17068784000000001</v>
+      </c>
+      <c r="C72">
+        <v>8.6186139999999994E-2</v>
+      </c>
+      <c r="D72">
+        <v>-1.0468430000000001E-2</v>
+      </c>
+      <c r="E72">
+        <v>6.2288339999999998E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>-0.15564045000000001</v>
+      </c>
+      <c r="C73">
+        <v>6.9990490000000002E-2</v>
+      </c>
+      <c r="D73">
+        <v>-5.4542309999999997E-2</v>
+      </c>
+      <c r="E73">
+        <v>7.5565919999999995E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>-0.15329072999999999</v>
+      </c>
+      <c r="C74">
+        <v>7.3495630000000006E-2</v>
+      </c>
+      <c r="D74">
+        <v>-9.3095369999999997E-2</v>
+      </c>
+      <c r="E74">
+        <v>8.3946629999999994E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>-0.15063365000000001</v>
+      </c>
+      <c r="C75">
+        <v>7.6722609999999997E-2</v>
+      </c>
+      <c r="D75">
+        <v>-0.12432954</v>
+      </c>
+      <c r="E75">
+        <v>8.8641929999999994E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>-0.15513703000000001</v>
+      </c>
+      <c r="C76">
+        <v>9.820276E-2</v>
+      </c>
+      <c r="D76">
+        <v>-0.14778775</v>
+      </c>
+      <c r="E76">
+        <v>9.0878780000000006E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>-0.14919445000000001</v>
+      </c>
+      <c r="C77">
+        <v>0.1039175</v>
+      </c>
+      <c r="D77">
+        <v>-0.16439612000000001</v>
+      </c>
+      <c r="E77">
+        <v>9.1731699999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>-0.14124832000000001</v>
+      </c>
+      <c r="C78">
+        <v>0.12010883999999999</v>
+      </c>
+      <c r="D78">
+        <v>-0.17552077999999999</v>
+      </c>
+      <c r="E78">
+        <v>9.2655370000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>-3.411032E-2</v>
+      </c>
+      <c r="C79">
+        <v>0.22029351999999999</v>
+      </c>
+      <c r="D79">
+        <v>-0.18248153</v>
+      </c>
+      <c r="E79">
+        <v>9.5809190000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>